--- a/Holmes/Evaluation/Reproting/email_send_second_round/gitlab_wrong_component_2023_11_17.xlsx
+++ b/Holmes/Evaluation/Reproting/email_send_second_round/gitlab_wrong_component_2023_11_17.xlsx
@@ -37,10 +37,10 @@
     <t>CVE-2020-2098</t>
   </si>
   <si>
-    <t>maven__fdse__org.jenkins-ci.plugins:sounds</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.jvnet.hudson.plugins:sounds</t>
+    <t>maven__split__org.jenkins-ci.plugins:sounds</t>
+  </si>
+  <si>
+    <t>maven__split__org.jvnet.hudson.plugins:sounds</t>
   </si>
   <si>
     <t>in https://plugins.jenkins.io/sounds/, the repo is in https://github.com/jenkinsci/sounds-plugin, in pox.xml, the groupid is acutally org.jenkins-ci.plugins</t>
@@ -49,10 +49,10 @@
     <t>CVE-2020-2151</t>
   </si>
   <si>
-    <t>maven__fdse__org.jenkins-ci.plugins:quality-gates</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.jenkins-ci.plugins:quality-gates-main</t>
+    <t>maven__split__org.jenkins-ci.plugins:quality-gates</t>
+  </si>
+  <si>
+    <t>maven__split__org.jenkins-ci.plugins:quality-gates-main</t>
   </si>
   <si>
     <t>the file in QualityGatesPlugin/src/main/resources/quality/gates/jenkins/plugin/GlobalConfig, https://github.com/jenkinsci/quality-gates-plugin/tree/master/QualityGatesPlugin/src/main/resources/quality/gates/jenkins/plugin/GlobalConfig, the org.jenkins-ci.plugins:quality-gates is directly affected and org.jenkins-ci.plugins:quality-gates-main is the parent</t>
@@ -61,10 +61,10 @@
     <t>CVE-2021-21633</t>
   </si>
   <si>
-    <t>maven__fdse__org.jenkins-ci.plugins:dependency-track</t>
-  </si>
-  <si>
-    <t>maven__fdse__io.jenkins.plugins:dependency-track</t>
+    <t>maven__split__org.jenkins-ci.plugins:dependency-track</t>
+  </si>
+  <si>
+    <t>maven__split__io.jenkins.plugins:dependency-track</t>
   </si>
   <si>
     <t>the patch is in https://github.com/jenkinsci/dependency-track-plugin/commit/70e7b82ad9a10499e628998a0bcb57c1481c66bc, which improves the checkPermission func. The groupid in https://github.com/jenkinsci/dependency-track-plugin/blob/70e7b82ad9a10499e628998a0bcb57c1481c66bc/pom.xml is org.jenkins-ci.plugins</t>
@@ -73,10 +73,10 @@
     <t>CVE-2020-1942</t>
   </si>
   <si>
-    <t>maven__fdse__org.apache.nifi:nifi-framework-core</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.apache.nifi:nifi</t>
+    <t>maven__split__org.apache.nifi:nifi-framework-core</t>
+  </si>
+  <si>
+    <t>maven__split__org.apache.nifi:nifi</t>
   </si>
   <si>
     <t xml:space="preserve">the patch is located in https://github.com/apache/nifi/pull/4028, found in https://nifi.apache.org/security.html#CVE-2020-1942, which the vulnerable fingerprint factory is changed, </t>
@@ -85,11 +85,11 @@
     <t>CVE-2020-17518</t>
   </si>
   <si>
-    <t>maven__fdse__org.apache.flink:flink-runtime</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.apache.flink:flink-parent
-maven__fdse__org.apache.flink:flink-metrics-core</t>
+    <t>maven__split__org.apache.flink:flink-runtime</t>
+  </si>
+  <si>
+    <t>maven__split__org.apache.flink:flink-parent
+maven__split__org.apache.flink:flink-metrics-core</t>
   </si>
   <si>
     <t>we find the patch, which modified only the one class: FileUploadHandler, https://github.com/apache/flink/commit/a5264a6f41524afe8ceadf1d8ddc8c80f323ebc4#diff-7920624ff6651ac9897c79309c0a94073a4e7afb111e926c8341492f3a730051</t>
@@ -98,10 +98,10 @@
     <t>CVE-2020-11980</t>
   </si>
   <si>
-    <t>maven__fdse__org.apache.karaf.management:org.apache.karaf.management.server</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.apache.karaf:karaf</t>
+    <t>maven__split__org.apache.karaf.management:org.apache.karaf.management.server</t>
+  </si>
+  <si>
+    <t>maven__split__org.apache.karaf:karaf</t>
   </si>
   <si>
     <t>the https://github.com/apache/karaf/commit/3e4c4bed2d08e81ca5961ab5fcadab23470db1c9 patched the vulnerability and It's possible to authenticate as a viewer role + invokes on the MLet getMBeansFromURL method, which goes off to a remote server to fetch the desired MBean, which is then registered in Karaf.</t>
@@ -110,10 +110,10 @@
     <t>CVE-2021-45330</t>
   </si>
   <si>
-    <t>go__fdse__code.gitea.io:gitea</t>
-  </si>
-  <si>
-    <t>go__fdse__github.com:go-gitea:gitea</t>
+    <t>go__split__code.gitea.io:gitea</t>
+  </si>
+  <si>
+    <t>go__split__github.com:go-gitea:gitea</t>
   </si>
   <si>
     <t xml:space="preserve"> in the readme of version of ralated modification, https://github.com/go-gitea/gitea/tree/71ad290b68779dbbed92aada292487a667dba952, the badge is https://godoc.org/code.gitea.io/gitea,</t>
@@ -122,10 +122,10 @@
     <t>CVE-2022-23913</t>
   </si>
   <si>
-    <t>maven__fdse__org.apache.activemq:artemis-core-client</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.apache.activemq:artemis-commons</t>
+    <t>maven__split__org.apache.activemq:artemis-core-client</t>
+  </si>
+  <si>
+    <t>maven__split__org.apache.activemq:artemis-commons</t>
   </si>
   <si>
     <t>the patch is https://github.com/apache/activemq-artemis/pull/3862/files</t>
@@ -134,7 +134,7 @@
     <t>CVE-2022-26850</t>
   </si>
   <si>
-    <t>maven__fdse__org.apache.nifi:nifi-single-user-utils</t>
+    <t>maven__split__org.apache.nifi:nifi-single-user-utils</t>
   </si>
   <si>
     <t>The Login Identity Providers configuration file contains the username and a bcrypt hash of the configured password. The patch is: https://github.com/apache/nifi/pull/5856/files#diff-d01c7386445a1795c15253ba940716ff1f606128d12bd3122ef9433d0972b8fc</t>
@@ -143,10 +143,10 @@
     <t>CVE-2016-8746</t>
   </si>
   <si>
-    <t>maven__fdse__org.apache.ranger:ranger-plugins-common</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.apache.ranger:ranger</t>
+    <t>maven__split__org.apache.ranger:ranger-plugins-common</t>
+  </si>
+  <si>
+    <t>maven__split__org.apache.ranger:ranger</t>
   </si>
   <si>
     <t>policy engine incorrectly matches paths in certain conditions when policy does not contain wildcards and has recursion flag set to true.[https://github.com/apache/ranger/commit/2fcd7f7cc175c0734443638b99c359e24c0f88ff] the patch fix resource-matcher to correctly handle policy containing only one resource whose value is '*'a</t>
@@ -155,10 +155,10 @@
     <t>CVE-2020-2254</t>
   </si>
   <si>
-    <t>maven__fdse__io.jenkins.blueocean:blueocean-git-pipeline</t>
-  </si>
-  <si>
-    <t>maven__fdse__io.jenkins.blueocean:blueocean</t>
+    <t>maven__split__io.jenkins.blueocean:blueocean-git-pipeline</t>
+  </si>
+  <si>
+    <t>maven__split__io.jenkins.blueocean:blueocean</t>
   </si>
   <si>
     <t>The early version provides an undocumented feature flag that, when enabled, allows an attacker with Job/Configure or Job/Create permission to read arbitrary files on the Jenkins controller file system. The patch in [https://github.com/jenkinsci/blueocean-plugin/commit/e5a6ab76cf6f85f6d476d1960c42414011dcd920]remove this undocumented feature which has security issue.</t>
@@ -167,10 +167,10 @@
     <t>CVE-2019-10306</t>
   </si>
   <si>
-    <t>maven__fdse__org.jenkins-ci.plugins:ontrack</t>
-  </si>
-  <si>
-    <t>maven__fdse__net.nemerosa.ontrack:ontrack-service</t>
+    <t>maven__split__org.jenkins-ci.plugins:ontrack</t>
+  </si>
+  <si>
+    <t>maven__split__net.nemerosa.ontrack:ontrack-service</t>
   </si>
   <si>
     <t>The sandbox bypass vulnerability allows attackers with control over ontrack DSL definitions to execute arbitrary code on the Jenkins master JVM.[https://github.com/jenkinsci/ontrack-plugin/commit/7f0f806c18fdd6043103d848ba4c813cb805dd85]The API GroovySandbox#run(Script, Whitelist) has been deprecated and now emits a warning to the system log about potential security problems. GroovySandbox#run(GroovyShell, String, Whitelist) replaces it. GroovySandbox#checkScriptForCompilationErrors(String, GroovyClassLoader) has been added as a safer method to implement script validation.</t>
@@ -179,10 +179,10 @@
     <t>CVE-2021-21618</t>
   </si>
   <si>
-    <t>maven__fdse__org.jenkins-ci.plugins:repository-connector</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.jvnet.hudson.plugins:repository-connector</t>
+    <t>maven__split__org.jenkins-ci.plugins:repository-connector</t>
+  </si>
+  <si>
+    <t>maven__split__org.jvnet.hudson.plugins:repository-connector</t>
   </si>
   <si>
     <t>Repository Connector Plugin 2.0.2 and earlier does not escape parameter names and descriptions for past builds.This results in a stored cross-site scripting (XSS) vulnerability exploitable by attackers with Item/Configure permission.Repository Connector Plugin 2.0.3 escapes parameter names and descriptions when creating new parameters.We can find the patch in [https://github.com/jenkinsci/repository-connector-plugin/commit/a8a32f5a143b90f57fbebbeeac8813572c74349b], the pom is: https://github.com/jenkinsci/repository-connector-plugin/blob/master/pom.xml</t>
